--- a/state_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
+++ b/state_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U264"/>
+  <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,7 +1590,7 @@
         <v>0.985</v>
       </c>
       <c r="G14" t="n">
-        <v>1.16835617347348</v>
+        <v>1.16789118906664</v>
       </c>
       <c r="H14" t="n">
         <v>7.2</v>
@@ -1671,7 +1671,7 @@
         <v>0.0145</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0175290769226987</v>
+        <v>0.0175335457523231</v>
       </c>
       <c r="H15" t="n">
         <v>0.077</v>
@@ -1752,7 +1752,7 @@
         <v>0.0145</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0175290769226987</v>
+        <v>0.0175335457523231</v>
       </c>
       <c r="H16" t="n">
         <v>0.077</v>
@@ -2173,7 +2173,7 @@
         <v>0.00725</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0214782354910394</v>
+        <v>0.02149289859673</v>
       </c>
       <c r="H21" t="n">
         <v>0.376853415283702</v>
@@ -2254,7 +2254,7 @@
         <v>0.00725</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0214782354910394</v>
+        <v>0.02149289859673</v>
       </c>
       <c r="H22" t="n">
         <v>0.376853415283702</v>
@@ -2331,7 +2331,7 @@
         <v>0.4655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.505225</v>
+        <v>0.5052225</v>
       </c>
       <c r="H23" t="n">
         <v>1.258</v>
@@ -2342,7 +2342,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.229</v>
+        <v>0.22925</v>
       </c>
       <c r="M23" t="n">
         <v>0.8827</v>
@@ -2408,7 +2408,7 @@
         <v>0.4655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.505225</v>
+        <v>0.5052225</v>
       </c>
       <c r="H24" t="n">
         <v>1.258</v>
@@ -2419,7 +2419,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.229</v>
+        <v>0.22925</v>
       </c>
       <c r="M24" t="n">
         <v>0.8827</v>
@@ -2489,7 +2489,7 @@
         <v>0.9</v>
       </c>
       <c r="G25" t="n">
-        <v>1.20164384446069</v>
+        <v>1.20119142719998</v>
       </c>
       <c r="H25" t="n">
         <v>7.2</v>
@@ -2570,7 +2570,7 @@
         <v>0.015</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0182807972406102</v>
+        <v>0.0182852997439471</v>
       </c>
       <c r="H26" t="n">
         <v>0.077</v>
@@ -2651,7 +2651,7 @@
         <v>0.015</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0182807972406102</v>
+        <v>0.0182852997439471</v>
       </c>
       <c r="H27" t="n">
         <v>0.077</v>
@@ -3072,7 +3072,7 @@
         <v>0.008030000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0249386831520706</v>
+        <v>0.0249493150540187</v>
       </c>
       <c r="H32" t="n">
         <v>0.376853415283702</v>
@@ -3153,7 +3153,7 @@
         <v>0.008030000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0249386831520706</v>
+        <v>0.0249493150540187</v>
       </c>
       <c r="H33" t="n">
         <v>0.376853415283702</v>
@@ -3230,7 +3230,7 @@
         <v>0.4655</v>
       </c>
       <c r="G34" t="n">
-        <v>0.514238095238095</v>
+        <v>0.514259523809524</v>
       </c>
       <c r="H34" t="n">
         <v>1.258</v>
@@ -3241,7 +3241,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.229</v>
+        <v>0.22925</v>
       </c>
       <c r="M34" t="n">
         <v>0.86852</v>
@@ -3307,7 +3307,7 @@
         <v>0.4655</v>
       </c>
       <c r="G35" t="n">
-        <v>0.514238095238095</v>
+        <v>0.514259523809524</v>
       </c>
       <c r="H35" t="n">
         <v>1.258</v>
@@ -3318,7 +3318,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.229</v>
+        <v>0.22925</v>
       </c>
       <c r="M35" t="n">
         <v>0.86852</v>
@@ -3388,7 +3388,7 @@
         <v>0.95</v>
       </c>
       <c r="G36" t="n">
-        <v>0.989313167292774</v>
+        <v>0.988908819726776</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -3469,7 +3469,7 @@
         <v>0.015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0183014357633617</v>
+        <v>0.0183056271578197</v>
       </c>
       <c r="H37" t="n">
         <v>0.077</v>
@@ -3550,7 +3550,7 @@
         <v>0.015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0183014357633617</v>
+        <v>0.0183056271578197</v>
       </c>
       <c r="H38" t="n">
         <v>0.077</v>
@@ -3971,7 +3971,7 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5092275010009329</v>
+        <v>0.509236614583897</v>
       </c>
       <c r="H43" t="n">
         <v>22.3448428598939</v>
@@ -4052,7 +4052,7 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5092275010009329</v>
+        <v>0.509236614583897</v>
       </c>
       <c r="H44" t="n">
         <v>22.3448428598939</v>
@@ -4129,7 +4129,7 @@
         <v>0.542</v>
       </c>
       <c r="G45" t="n">
-        <v>0.926617021276596</v>
+        <v>0.926636170212766</v>
       </c>
       <c r="H45" t="n">
         <v>19.07</v>
@@ -4140,7 +4140,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.2655</v>
+        <v>0.26575</v>
       </c>
       <c r="M45" t="n">
         <v>0.92448</v>
@@ -4206,7 +4206,7 @@
         <v>0.542</v>
       </c>
       <c r="G46" t="n">
-        <v>0.926617021276596</v>
+        <v>0.926636170212766</v>
       </c>
       <c r="H46" t="n">
         <v>19.07</v>
@@ -4217,7 +4217,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.2655</v>
+        <v>0.26575</v>
       </c>
       <c r="M46" t="n">
         <v>0.92448</v>
@@ -4287,7 +4287,7 @@
         <v>1.1</v>
       </c>
       <c r="G47" t="n">
-        <v>1.11459217084343</v>
+        <v>1.11428666379356</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -4368,7 +4368,7 @@
         <v>0.014</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0172323228355786</v>
+        <v>0.0172368951741438</v>
       </c>
       <c r="H48" t="n">
         <v>0.077</v>
@@ -4449,7 +4449,7 @@
         <v>0.014</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0172323228355786</v>
+        <v>0.0172368951741438</v>
       </c>
       <c r="H49" t="n">
         <v>0.077</v>
@@ -4870,7 +4870,7 @@
         <v>0.01124</v>
       </c>
       <c r="G54" t="n">
-        <v>0.410818521583466</v>
+        <v>0.410826536897911</v>
       </c>
       <c r="H54" t="n">
         <v>22.3448428598939</v>
@@ -4951,7 +4951,7 @@
         <v>0.01124</v>
       </c>
       <c r="G55" t="n">
-        <v>0.410818521583466</v>
+        <v>0.410826536897911</v>
       </c>
       <c r="H55" t="n">
         <v>22.3448428598939</v>
@@ -5190,7 +5190,7 @@
         <v>0.52</v>
       </c>
       <c r="G58" t="n">
-        <v>0.843322033898305</v>
+        <v>0.8433372881355931</v>
       </c>
       <c r="H58" t="n">
         <v>19.07</v>
@@ -5267,7 +5267,7 @@
         <v>0.52</v>
       </c>
       <c r="G59" t="n">
-        <v>0.843322033898305</v>
+        <v>0.8433372881355931</v>
       </c>
       <c r="H59" t="n">
         <v>19.07</v>
@@ -5818,7 +5818,7 @@
         <v>0.015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0171782698769255</v>
+        <v>0.0171818105439127</v>
       </c>
       <c r="H66" t="n">
         <v>0.077</v>
@@ -5899,7 +5899,7 @@
         <v>0.015</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0171782698769255</v>
+        <v>0.0171818105439127</v>
       </c>
       <c r="H67" t="n">
         <v>0.077</v>
@@ -6320,7 +6320,7 @@
         <v>0.01192</v>
       </c>
       <c r="G72" t="n">
-        <v>0.412579118942752</v>
+        <v>0.412579874284328</v>
       </c>
       <c r="H72" t="n">
         <v>22.3448428598939</v>
@@ -6401,7 +6401,7 @@
         <v>0.01192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.412579118942752</v>
+        <v>0.412579874284328</v>
       </c>
       <c r="H73" t="n">
         <v>22.3448428598939</v>
@@ -6640,7 +6640,7 @@
         <v>0.52</v>
       </c>
       <c r="G76" t="n">
-        <v>0.828949152542373</v>
+        <v>0.82895593220339</v>
       </c>
       <c r="H76" t="n">
         <v>19.07</v>
@@ -6717,7 +6717,7 @@
         <v>0.52</v>
       </c>
       <c r="G77" t="n">
-        <v>0.828949152542373</v>
+        <v>0.82895593220339</v>
       </c>
       <c r="H77" t="n">
         <v>19.07</v>
@@ -7187,7 +7187,7 @@
         <v>1.125</v>
       </c>
       <c r="G83" t="n">
-        <v>1.51776714067346</v>
+        <v>1.51760227570668</v>
       </c>
       <c r="H83" t="n">
         <v>5.5</v>
@@ -7268,7 +7268,7 @@
         <v>0.013</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0157696392402779</v>
+        <v>0.0157720581081596</v>
       </c>
       <c r="H84" t="n">
         <v>0.04</v>
@@ -7349,7 +7349,7 @@
         <v>0.013</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0157696392402779</v>
+        <v>0.0157720581081596</v>
       </c>
       <c r="H85" t="n">
         <v>0.04</v>
@@ -7770,7 +7770,7 @@
         <v>0.01124</v>
       </c>
       <c r="G90" t="n">
-        <v>0.406295073899729</v>
+        <v>0.406295829241305</v>
       </c>
       <c r="H90" t="n">
         <v>22.3448428598939</v>
@@ -7851,7 +7851,7 @@
         <v>0.01124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.406295073899729</v>
+        <v>0.406295829241305</v>
       </c>
       <c r="H91" t="n">
         <v>22.3448428598939</v>
@@ -8087,10 +8087,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.498</v>
+        <v>0.4975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.782491525423729</v>
+        <v>0.782484745762712</v>
       </c>
       <c r="H94" t="n">
         <v>19.07</v>
@@ -8101,13 +8101,13 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.194</v>
+        <v>0.1942</v>
       </c>
       <c r="M94" t="n">
         <v>0.83575</v>
       </c>
       <c r="N94" t="n">
-        <v>0.94206</v>
+        <v>0.94202</v>
       </c>
       <c r="O94" t="n">
         <v>1819188</v>
@@ -8164,10 +8164,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.498</v>
+        <v>0.4975</v>
       </c>
       <c r="G95" t="n">
-        <v>0.782491525423729</v>
+        <v>0.782484745762712</v>
       </c>
       <c r="H95" t="n">
         <v>19.07</v>
@@ -8178,13 +8178,13 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.194</v>
+        <v>0.1942</v>
       </c>
       <c r="M95" t="n">
         <v>0.83575</v>
       </c>
       <c r="N95" t="n">
-        <v>0.94206</v>
+        <v>0.94202</v>
       </c>
       <c r="O95" t="n">
         <v>1819188</v>
@@ -8637,7 +8637,7 @@
         <v>1.5</v>
       </c>
       <c r="G101" t="n">
-        <v>1.59959478270399</v>
+        <v>1.5993372595787</v>
       </c>
       <c r="H101" t="n">
         <v>5.5</v>
@@ -8718,7 +8718,7 @@
         <v>0.0125</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0141927088418875</v>
+        <v>0.0141945112666026</v>
       </c>
       <c r="H102" t="n">
         <v>0.04</v>
@@ -8799,7 +8799,7 @@
         <v>0.0125</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0141927088418875</v>
+        <v>0.0141945112666026</v>
       </c>
       <c r="H103" t="n">
         <v>0.04</v>
@@ -9220,7 +9220,7 @@
         <v>0.00755</v>
       </c>
       <c r="G108" t="n">
-        <v>0.395924549387127</v>
+        <v>0.395929975435823</v>
       </c>
       <c r="H108" t="n">
         <v>22.3448428598939</v>
@@ -9301,7 +9301,7 @@
         <v>0.00755</v>
       </c>
       <c r="G109" t="n">
-        <v>0.395924549387127</v>
+        <v>0.395929975435823</v>
       </c>
       <c r="H109" t="n">
         <v>22.3448428598939</v>
@@ -9382,7 +9382,7 @@
         <v>0.4509</v>
       </c>
       <c r="G110" t="n">
-        <v>0.399714012974674</v>
+        <v>0.399765842828886</v>
       </c>
       <c r="H110" t="n">
         <v>1.13</v>
@@ -9463,7 +9463,7 @@
         <v>0.4509</v>
       </c>
       <c r="G111" t="n">
-        <v>0.399714012974674</v>
+        <v>0.399765842828886</v>
       </c>
       <c r="H111" t="n">
         <v>1.13</v>
@@ -9537,10 +9537,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.4935</v>
+        <v>0.4932</v>
       </c>
       <c r="G112" t="n">
-        <v>0.755303748548432</v>
+        <v>0.755332718268046</v>
       </c>
       <c r="H112" t="n">
         <v>19.07</v>
@@ -9551,13 +9551,13 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.1595</v>
+        <v>0.15945</v>
       </c>
       <c r="M112" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N112" t="n">
-        <v>0.9399</v>
+        <v>0.93984</v>
       </c>
       <c r="O112" t="n">
         <v>1819188</v>
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.4935</v>
+        <v>0.4932</v>
       </c>
       <c r="G113" t="n">
-        <v>0.755303748548432</v>
+        <v>0.755332718268046</v>
       </c>
       <c r="H113" t="n">
         <v>19.07</v>
@@ -9628,13 +9628,13 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.1595</v>
+        <v>0.15945</v>
       </c>
       <c r="M113" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N113" t="n">
-        <v>0.9399</v>
+        <v>0.93984</v>
       </c>
       <c r="O113" t="n">
         <v>1819188</v>
@@ -10164,7 +10164,7 @@
         <v>1.5</v>
       </c>
       <c r="G120" t="n">
-        <v>1.55120239888275</v>
+        <v>1.55098039618854</v>
       </c>
       <c r="H120" t="n">
         <v>5.5</v>
@@ -10245,7 +10245,7 @@
         <v>0.012</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0124281990204344</v>
+        <v>0.012430661270516</v>
       </c>
       <c r="H121" t="n">
         <v>0.04</v>
@@ -10326,7 +10326,7 @@
         <v>0.012</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0124281990204344</v>
+        <v>0.012430661270516</v>
       </c>
       <c r="H122" t="n">
         <v>0.04</v>
@@ -10821,10 +10821,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00207</v>
+        <v>0.00211</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0135247122077974</v>
+        <v>0.013544634056443</v>
       </c>
       <c r="H128" t="n">
         <v>0.144753244588259</v>
@@ -10835,7 +10835,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00138</v>
+        <v>0.00146</v>
       </c>
       <c r="M128" t="n">
         <v>0.01342</v>
@@ -10902,10 +10902,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00207</v>
+        <v>0.00211</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0135247122077974</v>
+        <v>0.013544634056443</v>
       </c>
       <c r="H129" t="n">
         <v>0.144753244588259</v>
@@ -10916,7 +10916,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00138</v>
+        <v>0.00146</v>
       </c>
       <c r="M129" t="n">
         <v>0.01342</v>
@@ -10986,7 +10986,7 @@
         <v>0.4284</v>
       </c>
       <c r="G130" t="n">
-        <v>0.397431805259657</v>
+        <v>0.397550233900028</v>
       </c>
       <c r="H130" t="n">
         <v>1.15</v>
@@ -11067,7 +11067,7 @@
         <v>0.4284</v>
       </c>
       <c r="G131" t="n">
-        <v>0.397431805259657</v>
+        <v>0.397550233900028</v>
       </c>
       <c r="H131" t="n">
         <v>1.15</v>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.4585</v>
+        <v>0.45835</v>
       </c>
       <c r="G133" t="n">
-        <v>0.422683770310151</v>
+        <v>0.422781588499694</v>
       </c>
       <c r="H133" t="n">
         <v>1.155</v>
@@ -11232,13 +11232,13 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.128</v>
+        <v>0.12815</v>
       </c>
       <c r="M133" t="n">
-        <v>0.7111</v>
+        <v>0.7110300000000001</v>
       </c>
       <c r="N133" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.89956</v>
       </c>
       <c r="O133" t="n">
         <v>1819188</v>
@@ -11295,10 +11295,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.4585</v>
+        <v>0.45835</v>
       </c>
       <c r="G134" t="n">
-        <v>0.422683770310151</v>
+        <v>0.422781588499694</v>
       </c>
       <c r="H134" t="n">
         <v>1.155</v>
@@ -11309,13 +11309,13 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.128</v>
+        <v>0.12815</v>
       </c>
       <c r="M134" t="n">
-        <v>0.7111</v>
+        <v>0.7110300000000001</v>
       </c>
       <c r="N134" t="n">
-        <v>0.8997000000000001</v>
+        <v>0.89956</v>
       </c>
       <c r="O134" t="n">
         <v>1819188</v>
@@ -11845,7 +11845,7 @@
         <v>1.05</v>
       </c>
       <c r="G141" t="n">
-        <v>1.35584303618982</v>
+        <v>1.35562479625314</v>
       </c>
       <c r="H141" t="n">
         <v>5.5</v>
@@ -11926,7 +11926,7 @@
         <v>0.013</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0128858729134155</v>
+        <v>0.0128871222895667</v>
       </c>
       <c r="H142" t="n">
         <v>0.04</v>
@@ -12007,7 +12007,7 @@
         <v>0.013</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0128858729134155</v>
+        <v>0.0128871222895667</v>
       </c>
       <c r="H143" t="n">
         <v>0.04</v>
@@ -12502,10 +12502,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.00192</v>
+        <v>0.00198</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0093036458152781</v>
+        <v>0.009329812343820101</v>
       </c>
       <c r="H149" t="n">
         <v>0.127892610946561</v>
@@ -12516,7 +12516,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00142</v>
+        <v>0.00148</v>
       </c>
       <c r="M149" t="n">
         <v>0.0086</v>
@@ -12583,10 +12583,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.00192</v>
+        <v>0.00198</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0093036458152781</v>
+        <v>0.009329812343820101</v>
       </c>
       <c r="H150" t="n">
         <v>0.127892610946561</v>
@@ -12597,7 +12597,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00142</v>
+        <v>0.00148</v>
       </c>
       <c r="M150" t="n">
         <v>0.0086</v>
@@ -12667,7 +12667,7 @@
         <v>0.35195</v>
       </c>
       <c r="G151" t="n">
-        <v>0.411548471926324</v>
+        <v>0.411666900566695</v>
       </c>
       <c r="H151" t="n">
         <v>1.17</v>
@@ -12748,7 +12748,7 @@
         <v>0.35195</v>
       </c>
       <c r="G152" t="n">
-        <v>0.411548471926324</v>
+        <v>0.411666900566695</v>
       </c>
       <c r="H152" t="n">
         <v>1.17</v>
@@ -12899,10 +12899,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.386</v>
+        <v>0.38585</v>
       </c>
       <c r="G154" t="n">
-        <v>0.434017103643485</v>
+        <v>0.434114921833027</v>
       </c>
       <c r="H154" t="n">
         <v>1.21</v>
@@ -12913,13 +12913,13 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.128</v>
+        <v>0.12815</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9448</v>
+        <v>0.94474</v>
       </c>
       <c r="O154" t="n">
         <v>1819188</v>
@@ -12976,10 +12976,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.386</v>
+        <v>0.38585</v>
       </c>
       <c r="G155" t="n">
-        <v>0.434017103643485</v>
+        <v>0.434114921833027</v>
       </c>
       <c r="H155" t="n">
         <v>1.21</v>
@@ -12990,13 +12990,13 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.128</v>
+        <v>0.12815</v>
       </c>
       <c r="M155" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N155" t="n">
-        <v>0.9448</v>
+        <v>0.94474</v>
       </c>
       <c r="O155" t="n">
         <v>1819188</v>
@@ -13526,7 +13526,7 @@
         <v>0.74</v>
       </c>
       <c r="G162" t="n">
-        <v>0.988436256528804</v>
+        <v>0.9882180165921221</v>
       </c>
       <c r="H162" t="n">
         <v>3.55</v>
@@ -13607,7 +13607,7 @@
         <v>0.014</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0138157567783771</v>
+        <v>0.0138189311648313</v>
       </c>
       <c r="H163" t="n">
         <v>0.04</v>
@@ -13688,7 +13688,7 @@
         <v>0.014</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0138157567783771</v>
+        <v>0.0138189311648313</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -13769,13 +13769,13 @@
         <v>180</v>
       </c>
       <c r="G165" t="n">
-        <v>1413.48960606627</v>
+        <v>1334.82334286273</v>
       </c>
       <c r="H165" t="n">
         <v>17000</v>
       </c>
       <c r="I165" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J165" t="n">
         <v>30.5084745762712</v>
@@ -13854,13 +13854,13 @@
         <v>180</v>
       </c>
       <c r="G166" t="n">
-        <v>1413.48960606627</v>
+        <v>1334.82334286273</v>
       </c>
       <c r="H166" t="n">
         <v>17000</v>
       </c>
       <c r="I166" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J166" t="n">
         <v>30.5084745762712</v>
@@ -13939,13 +13939,13 @@
         <v>180</v>
       </c>
       <c r="G167" t="n">
-        <v>1413.48960606627</v>
+        <v>1334.82334286273</v>
       </c>
       <c r="H167" t="n">
         <v>17000</v>
       </c>
       <c r="I167" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J167" t="n">
         <v>30.5084745762712</v>
@@ -14024,13 +14024,13 @@
         <v>180</v>
       </c>
       <c r="G168" t="n">
-        <v>1413.48960606627</v>
+        <v>1334.82334286273</v>
       </c>
       <c r="H168" t="n">
         <v>17000</v>
       </c>
       <c r="I168" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J168" t="n">
         <v>30.5084745762712</v>
@@ -14183,10 +14183,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00222</v>
+        <v>0.00225</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0083100824684532</v>
+        <v>0.008341034011860799</v>
       </c>
       <c r="H170" t="n">
         <v>0.127892610946561</v>
@@ -14197,7 +14197,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00164</v>
+        <v>0.0017</v>
       </c>
       <c r="M170" t="n">
         <v>0.00966</v>
@@ -14264,10 +14264,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.00222</v>
+        <v>0.00225</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0083100824684532</v>
+        <v>0.008341034011860799</v>
       </c>
       <c r="H171" t="n">
         <v>0.127892610946561</v>
@@ -14278,7 +14278,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00164</v>
+        <v>0.0017</v>
       </c>
       <c r="M171" t="n">
         <v>0.00966</v>
@@ -14348,7 +14348,7 @@
         <v>0.4736</v>
       </c>
       <c r="G172" t="n">
-        <v>0.450533471926324</v>
+        <v>0.450651900566695</v>
       </c>
       <c r="H172" t="n">
         <v>1.17</v>
@@ -14429,7 +14429,7 @@
         <v>0.4736</v>
       </c>
       <c r="G173" t="n">
-        <v>0.450533471926324</v>
+        <v>0.450651900566695</v>
       </c>
       <c r="H173" t="n">
         <v>1.17</v>
@@ -14580,10 +14580,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.509</v>
+        <v>0.50875</v>
       </c>
       <c r="G175" t="n">
-        <v>0.471167103643485</v>
+        <v>0.471258255166361</v>
       </c>
       <c r="H175" t="n">
         <v>1.21</v>
@@ -14594,13 +14594,13 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.1615</v>
+        <v>0.1617</v>
       </c>
       <c r="M175" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N175" t="n">
-        <v>0.9448</v>
+        <v>0.94474</v>
       </c>
       <c r="O175" t="n">
         <v>1819188</v>
@@ -14657,10 +14657,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.509</v>
+        <v>0.50875</v>
       </c>
       <c r="G176" t="n">
-        <v>0.471167103643485</v>
+        <v>0.471258255166361</v>
       </c>
       <c r="H176" t="n">
         <v>1.21</v>
@@ -14671,13 +14671,13 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.1615</v>
+        <v>0.1617</v>
       </c>
       <c r="M176" t="n">
-        <v>0.7657</v>
+        <v>0.76569</v>
       </c>
       <c r="N176" t="n">
-        <v>0.9448</v>
+        <v>0.94474</v>
       </c>
       <c r="O176" t="n">
         <v>1819188</v>
@@ -15207,7 +15207,7 @@
         <v>0.64</v>
       </c>
       <c r="G183" t="n">
-        <v>0.952896887845311</v>
+        <v>0.952812775339233</v>
       </c>
       <c r="H183" t="n">
         <v>3.55</v>
@@ -15288,7 +15288,7 @@
         <v>0.014</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0134490901117104</v>
+        <v>0.0134522644981647</v>
       </c>
       <c r="H184" t="n">
         <v>0.032</v>
@@ -15369,7 +15369,7 @@
         <v>0.014</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0134490901117104</v>
+        <v>0.0134522644981647</v>
       </c>
       <c r="H185" t="n">
         <v>0.032</v>
@@ -15450,13 +15450,13 @@
         <v>198</v>
       </c>
       <c r="G186" t="n">
-        <v>1393.18452132051</v>
+        <v>1314.51825811696</v>
       </c>
       <c r="H186" t="n">
         <v>17000</v>
       </c>
       <c r="I186" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J186" t="n">
         <v>33.8983050847458</v>
@@ -15535,13 +15535,13 @@
         <v>198</v>
       </c>
       <c r="G187" t="n">
-        <v>1393.18452132051</v>
+        <v>1314.51825811696</v>
       </c>
       <c r="H187" t="n">
         <v>17000</v>
       </c>
       <c r="I187" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J187" t="n">
         <v>33.8983050847458</v>
@@ -15620,13 +15620,13 @@
         <v>198</v>
       </c>
       <c r="G188" t="n">
-        <v>1393.18452132051</v>
+        <v>1314.51825811696</v>
       </c>
       <c r="H188" t="n">
         <v>17000</v>
       </c>
       <c r="I188" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J188" t="n">
         <v>33.8983050847458</v>
@@ -15705,13 +15705,13 @@
         <v>198</v>
       </c>
       <c r="G189" t="n">
-        <v>1393.18452132051</v>
+        <v>1314.51825811696</v>
       </c>
       <c r="H189" t="n">
         <v>17000</v>
       </c>
       <c r="I189" t="n">
-        <v>11255</v>
+        <v>8918.91748</v>
       </c>
       <c r="J189" t="n">
         <v>33.8983050847458</v>
@@ -15867,7 +15867,7 @@
         <v>0.003</v>
       </c>
       <c r="G191" t="n">
-        <v>0.005408493851996</v>
+        <v>0.0054393881882034</v>
       </c>
       <c r="H191" t="n">
         <v>0.0424458024611061</v>
@@ -15878,7 +15878,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00202</v>
+        <v>0.00206</v>
       </c>
       <c r="M191" t="n">
         <v>0.00976</v>
@@ -15948,7 +15948,7 @@
         <v>0.003</v>
       </c>
       <c r="G192" t="n">
-        <v>0.005408493851996</v>
+        <v>0.0054393881882034</v>
       </c>
       <c r="H192" t="n">
         <v>0.0424458024611061</v>
@@ -15959,7 +15959,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00202</v>
+        <v>0.00206</v>
       </c>
       <c r="M192" t="n">
         <v>0.00976</v>
@@ -16029,7 +16029,7 @@
         <v>0.4384</v>
       </c>
       <c r="G193" t="n">
-        <v>0.448750138592991</v>
+        <v>0.448868567233361</v>
       </c>
       <c r="H193" t="n">
         <v>1.17</v>
@@ -16110,7 +16110,7 @@
         <v>0.4384</v>
       </c>
       <c r="G194" t="n">
-        <v>0.448750138592991</v>
+        <v>0.448868567233361</v>
       </c>
       <c r="H194" t="n">
         <v>1.17</v>
@@ -16261,10 +16261,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.4745</v>
+        <v>0.47445</v>
       </c>
       <c r="G196" t="n">
-        <v>0.465533770310151</v>
+        <v>0.465638255166361</v>
       </c>
       <c r="H196" t="n">
         <v>1.21</v>
@@ -16338,10 +16338,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.4745</v>
+        <v>0.47445</v>
       </c>
       <c r="G197" t="n">
-        <v>0.465533770310151</v>
+        <v>0.465638255166361</v>
       </c>
       <c r="H197" t="n">
         <v>1.21</v>
@@ -16888,7 +16888,7 @@
         <v>0.64</v>
       </c>
       <c r="G204" t="n">
-        <v>0.883851154346701</v>
+        <v>0.883762534221078</v>
       </c>
       <c r="H204" t="n">
         <v>3.52</v>
@@ -16969,7 +16969,7 @@
         <v>0.013</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0128465323169936</v>
+        <v>0.0128497605066082</v>
       </c>
       <c r="H205" t="n">
         <v>0.032</v>
@@ -17050,7 +17050,7 @@
         <v>0.013</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0128465323169936</v>
+        <v>0.0128497605066082</v>
       </c>
       <c r="H206" t="n">
         <v>0.032</v>
@@ -17131,13 +17131,13 @@
         <v>220</v>
       </c>
       <c r="G207" t="n">
-        <v>1418.17046134328</v>
+        <v>1338.14788325691</v>
       </c>
       <c r="H207" t="n">
         <v>17000</v>
       </c>
       <c r="I207" t="n">
-        <v>11560</v>
+        <v>9011.546340000001</v>
       </c>
       <c r="J207" t="n">
         <v>31.0344827586207</v>
@@ -17216,13 +17216,13 @@
         <v>220</v>
       </c>
       <c r="G208" t="n">
-        <v>1418.17046134328</v>
+        <v>1338.14788325691</v>
       </c>
       <c r="H208" t="n">
         <v>17000</v>
       </c>
       <c r="I208" t="n">
-        <v>11560</v>
+        <v>9011.546340000001</v>
       </c>
       <c r="J208" t="n">
         <v>31.0344827586207</v>
@@ -17301,13 +17301,13 @@
         <v>220</v>
       </c>
       <c r="G209" t="n">
-        <v>1418.17046134328</v>
+        <v>1338.14788325691</v>
       </c>
       <c r="H209" t="n">
         <v>17000</v>
       </c>
       <c r="I209" t="n">
-        <v>11560</v>
+        <v>9011.546340000001</v>
       </c>
       <c r="J209" t="n">
         <v>31.0344827586207</v>
@@ -17386,13 +17386,13 @@
         <v>220</v>
       </c>
       <c r="G210" t="n">
-        <v>1418.17046134328</v>
+        <v>1338.14788325691</v>
       </c>
       <c r="H210" t="n">
         <v>17000</v>
       </c>
       <c r="I210" t="n">
-        <v>11560</v>
+        <v>9011.546340000001</v>
       </c>
       <c r="J210" t="n">
         <v>31.0344827586207</v>
@@ -17548,7 +17548,7 @@
         <v>0.00368</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0051348202812122</v>
+        <v>0.0051629509020387</v>
       </c>
       <c r="H212" t="n">
         <v>0.0190853107583637</v>
@@ -17559,7 +17559,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.00249</v>
+        <v>0.00252</v>
       </c>
       <c r="M212" t="n">
         <v>0.00957</v>
@@ -17629,7 +17629,7 @@
         <v>0.00368</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0051348202812122</v>
+        <v>0.0051629509020387</v>
       </c>
       <c r="H213" t="n">
         <v>0.0190853107583637</v>
@@ -17640,7 +17640,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.00249</v>
+        <v>0.00252</v>
       </c>
       <c r="M213" t="n">
         <v>0.00957</v>
@@ -17710,7 +17710,7 @@
         <v>0.402</v>
       </c>
       <c r="G214" t="n">
-        <v>0.436067158165198</v>
+        <v>0.436210935776476</v>
       </c>
       <c r="H214" t="n">
         <v>1.17</v>
@@ -17791,7 +17791,7 @@
         <v>0.402</v>
       </c>
       <c r="G215" t="n">
-        <v>0.436067158165198</v>
+        <v>0.436210935776476</v>
       </c>
       <c r="H215" t="n">
         <v>1.17</v>
@@ -17945,7 +17945,7 @@
         <v>0.43</v>
       </c>
       <c r="G217" t="n">
-        <v>0.45094447015679</v>
+        <v>0.451035761946631</v>
       </c>
       <c r="H217" t="n">
         <v>1.21</v>
@@ -18022,7 +18022,7 @@
         <v>0.43</v>
       </c>
       <c r="G218" t="n">
-        <v>0.45094447015679</v>
+        <v>0.451035761946631</v>
       </c>
       <c r="H218" t="n">
         <v>1.21</v>
@@ -18569,7 +18569,7 @@
         <v>0.385</v>
       </c>
       <c r="G225" t="n">
-        <v>0.771615150119543</v>
+        <v>0.771518324426733</v>
       </c>
       <c r="H225" t="n">
         <v>3.52</v>
@@ -18650,7 +18650,7 @@
         <v>0.013</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0126744581677575</v>
+        <v>0.0126764158053539</v>
       </c>
       <c r="H226" t="n">
         <v>0.032</v>
@@ -18731,7 +18731,7 @@
         <v>0.013</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0126744581677575</v>
+        <v>0.0126764158053539</v>
       </c>
       <c r="H227" t="n">
         <v>0.032</v>
@@ -18812,13 +18812,13 @@
         <v>340</v>
       </c>
       <c r="G228" t="n">
-        <v>2061.48080617086</v>
+        <v>1981.4582280845</v>
       </c>
       <c r="H228" t="n">
         <v>27000</v>
       </c>
       <c r="I228" t="n">
-        <v>14236.33205</v>
+        <v>12301.03089</v>
       </c>
       <c r="J228" t="n">
         <v>36.2068965517241</v>
@@ -18897,13 +18897,13 @@
         <v>340</v>
       </c>
       <c r="G229" t="n">
-        <v>2061.48080617086</v>
+        <v>1981.4582280845</v>
       </c>
       <c r="H229" t="n">
         <v>27000</v>
       </c>
       <c r="I229" t="n">
-        <v>14236.33205</v>
+        <v>12301.03089</v>
       </c>
       <c r="J229" t="n">
         <v>36.2068965517241</v>
@@ -18982,13 +18982,13 @@
         <v>340</v>
       </c>
       <c r="G230" t="n">
-        <v>2061.48080617086</v>
+        <v>1981.4582280845</v>
       </c>
       <c r="H230" t="n">
         <v>27000</v>
       </c>
       <c r="I230" t="n">
-        <v>14236.33205</v>
+        <v>12301.03089</v>
       </c>
       <c r="J230" t="n">
         <v>36.2068965517241</v>
@@ -19067,13 +19067,13 @@
         <v>340</v>
       </c>
       <c r="G231" t="n">
-        <v>2061.48080617086</v>
+        <v>1981.4582280845</v>
       </c>
       <c r="H231" t="n">
         <v>27000</v>
       </c>
       <c r="I231" t="n">
-        <v>14236.33205</v>
+        <v>12301.03089</v>
       </c>
       <c r="J231" t="n">
         <v>36.2068965517241</v>
@@ -19229,7 +19229,7 @@
         <v>0.0051</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0062276907131514</v>
+        <v>0.0062399422866883</v>
       </c>
       <c r="H233" t="n">
         <v>0.0234105798545538</v>
@@ -19240,7 +19240,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="M233" t="n">
         <v>0.01038</v>
@@ -19310,7 +19310,7 @@
         <v>0.0051</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0062276907131514</v>
+        <v>0.0062399422866883</v>
       </c>
       <c r="H234" t="n">
         <v>0.0234105798545538</v>
@@ -19321,7 +19321,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.00303</v>
+        <v>0.00308</v>
       </c>
       <c r="M234" t="n">
         <v>0.01038</v>
@@ -19391,7 +19391,7 @@
         <v>0.363</v>
       </c>
       <c r="G235" t="n">
-        <v>0.400438894824536</v>
+        <v>0.40051494485667</v>
       </c>
       <c r="H235" t="n">
         <v>1.17</v>
@@ -19472,7 +19472,7 @@
         <v>0.363</v>
       </c>
       <c r="G236" t="n">
-        <v>0.400438894824536</v>
+        <v>0.40051494485667</v>
       </c>
       <c r="H236" t="n">
         <v>1.17</v>
@@ -19626,7 +19626,7 @@
         <v>0.374</v>
       </c>
       <c r="G238" t="n">
-        <v>0.415947837856737</v>
+        <v>0.415986063405972</v>
       </c>
       <c r="H238" t="n">
         <v>1.21</v>
@@ -19637,7 +19637,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>0.1475</v>
+        <v>0.14775</v>
       </c>
       <c r="M238" t="n">
         <v>0.7338</v>
@@ -19703,7 +19703,7 @@
         <v>0.374</v>
       </c>
       <c r="G239" t="n">
-        <v>0.415947837856737</v>
+        <v>0.415986063405972</v>
       </c>
       <c r="H239" t="n">
         <v>1.21</v>
@@ -19714,7 +19714,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>0.1475</v>
+        <v>0.14775</v>
       </c>
       <c r="M239" t="n">
         <v>0.7338</v>
@@ -20250,7 +20250,7 @@
         <v>0.34</v>
       </c>
       <c r="G246" t="n">
-        <v>0.740841185846027</v>
+        <v>0.740734479980481</v>
       </c>
       <c r="H246" t="n">
         <v>3.52</v>
@@ -20331,7 +20331,7 @@
         <v>0.011</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0130981869813169</v>
+        <v>0.0131001446189132</v>
       </c>
       <c r="H247" t="n">
         <v>0.032</v>
@@ -20412,7 +20412,7 @@
         <v>0.011</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0130981869813169</v>
+        <v>0.0131001446189132</v>
       </c>
       <c r="H248" t="n">
         <v>0.032</v>
@@ -20493,13 +20493,13 @@
         <v>340</v>
       </c>
       <c r="G249" t="n">
-        <v>2211.08282640525</v>
+        <v>2132.41656320171</v>
       </c>
       <c r="H249" t="n">
         <v>27000</v>
       </c>
       <c r="I249" t="n">
-        <v>14216.63772</v>
+        <v>12088.65975</v>
       </c>
       <c r="J249" t="n">
         <v>38.9830508474576</v>
@@ -20578,13 +20578,13 @@
         <v>340</v>
       </c>
       <c r="G250" t="n">
-        <v>2211.08282640525</v>
+        <v>2132.41656320171</v>
       </c>
       <c r="H250" t="n">
         <v>27000</v>
       </c>
       <c r="I250" t="n">
-        <v>14216.63772</v>
+        <v>12088.65975</v>
       </c>
       <c r="J250" t="n">
         <v>38.9830508474576</v>
@@ -20663,13 +20663,13 @@
         <v>340</v>
       </c>
       <c r="G251" t="n">
-        <v>2211.08282640525</v>
+        <v>2132.41656320171</v>
       </c>
       <c r="H251" t="n">
         <v>27000</v>
       </c>
       <c r="I251" t="n">
-        <v>14216.63772</v>
+        <v>12088.65975</v>
       </c>
       <c r="J251" t="n">
         <v>38.9830508474576</v>
@@ -20748,13 +20748,13 @@
         <v>340</v>
       </c>
       <c r="G252" t="n">
-        <v>2211.08282640525</v>
+        <v>2132.41656320171</v>
       </c>
       <c r="H252" t="n">
         <v>27000</v>
       </c>
       <c r="I252" t="n">
-        <v>14216.63772</v>
+        <v>12088.65975</v>
       </c>
       <c r="J252" t="n">
         <v>38.9830508474576</v>
@@ -20907,10 +20907,10 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0.00646</v>
+        <v>0.00657</v>
       </c>
       <c r="G254" t="n">
-        <v>0.008697412568892201</v>
+        <v>0.0087017538415467</v>
       </c>
       <c r="H254" t="n">
         <v>0.0383845824092352</v>
@@ -20921,7 +20921,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
-        <v>0.00546</v>
+        <v>0.00549</v>
       </c>
       <c r="M254" t="n">
         <v>0.01517</v>
@@ -20988,10 +20988,10 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0.00646</v>
+        <v>0.00657</v>
       </c>
       <c r="G255" t="n">
-        <v>0.008697412568892201</v>
+        <v>0.0087017538415467</v>
       </c>
       <c r="H255" t="n">
         <v>0.0383845824092352</v>
@@ -21002,7 +21002,7 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
-        <v>0.00546</v>
+        <v>0.00549</v>
       </c>
       <c r="M255" t="n">
         <v>0.01517</v>
@@ -21072,7 +21072,7 @@
         <v>0.327</v>
       </c>
       <c r="G256" t="n">
-        <v>0.39460838634996</v>
+        <v>0.394684436382094</v>
       </c>
       <c r="H256" t="n">
         <v>1.05</v>
@@ -21153,7 +21153,7 @@
         <v>0.327</v>
       </c>
       <c r="G257" t="n">
-        <v>0.39460838634996</v>
+        <v>0.394684436382094</v>
       </c>
       <c r="H257" t="n">
         <v>1.05</v>
@@ -21307,7 +21307,7 @@
         <v>0.336</v>
       </c>
       <c r="G259" t="n">
-        <v>0.411863092094025</v>
+        <v>0.41190131764326</v>
       </c>
       <c r="H259" t="n">
         <v>1.078</v>
@@ -21318,7 +21318,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>0.1425</v>
+        <v>0.14275</v>
       </c>
       <c r="M259" t="n">
         <v>0.76581</v>
@@ -21384,7 +21384,7 @@
         <v>0.336</v>
       </c>
       <c r="G260" t="n">
-        <v>0.411863092094025</v>
+        <v>0.41190131764326</v>
       </c>
       <c r="H260" t="n">
         <v>1.078</v>
@@ -21395,7 +21395,7 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
-        <v>0.1425</v>
+        <v>0.14275</v>
       </c>
       <c r="M260" t="n">
         <v>0.76581</v>
@@ -21743,6 +21743,1687 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.3994</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.47105</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>28.4777333333333</v>
+      </c>
+      <c r="H266" t="n">
+        <v>175</v>
+      </c>
+      <c r="I266" t="n">
+        <v>125</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>16</v>
+      </c>
+      <c r="M266" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="N266" t="n">
+        <v>80</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.720347598240078</v>
+      </c>
+      <c r="H267" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2.07804</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0135932203389831</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0135932203389831</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>270</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1492.83050847458</v>
+      </c>
+      <c r="H270" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I270" t="n">
+        <v>7924.75</v>
+      </c>
+      <c r="J270" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K270" t="n">
+        <v>50.8474576271186</v>
+      </c>
+      <c r="L270" t="n">
+        <v>139</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1694</v>
+      </c>
+      <c r="N270" t="n">
+        <v>5400.12</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>270</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1492.83050847458</v>
+      </c>
+      <c r="H271" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I271" t="n">
+        <v>7924.75</v>
+      </c>
+      <c r="J271" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K271" t="n">
+        <v>50.8474576271186</v>
+      </c>
+      <c r="L271" t="n">
+        <v>139</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1694</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5400.12</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>270</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1492.83050847458</v>
+      </c>
+      <c r="H272" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I272" t="n">
+        <v>7924.75</v>
+      </c>
+      <c r="J272" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K272" t="n">
+        <v>50.8474576271186</v>
+      </c>
+      <c r="L272" t="n">
+        <v>139</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1694</v>
+      </c>
+      <c r="N272" t="n">
+        <v>5400.12</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>270</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1492.83050847458</v>
+      </c>
+      <c r="H273" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I273" t="n">
+        <v>7924.75</v>
+      </c>
+      <c r="J273" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K273" t="n">
+        <v>50.8474576271186</v>
+      </c>
+      <c r="L273" t="n">
+        <v>139</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1694</v>
+      </c>
+      <c r="N273" t="n">
+        <v>5400.12</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>93</v>
+      </c>
+      <c r="G274" t="n">
+        <v>91.11199999999999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="I274" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>93</v>
+      </c>
+      <c r="M274" t="n">
+        <v>95.364</v>
+      </c>
+      <c r="N274" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0089861721995251</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.0383845824092352</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.02735</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.01573</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.02344</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.00658</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0089861721995251</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.0383845824092352</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.02735</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.01573</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.02344</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.409006470280399</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.93675</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.74188</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.90076</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.409006470280399</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.93675</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.74188</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.90076</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P278" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G279" t="n">
+        <v>6.0912</v>
+      </c>
+      <c r="H279" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="I279" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="M279" t="n">
+        <v>7.09525</v>
+      </c>
+      <c r="N279" t="n">
+        <v>7.265</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P279" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.426409792219531</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.18475</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.76581</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.92782</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.426409792219531</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>0.18475</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.76581</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.92782</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P281" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.678305084745763</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1.3895</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1.0947</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1.2878</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.678305084745763</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1.3895</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1.0947</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1.2878</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.101728813559322</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.47765</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.18747</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.37312</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Manawatu at u/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.101728813559322</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.47765</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.18747</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.37312</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1819188</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5525994</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
+++ b/state_results/Rivers/ManawatuatusPNCCSTP_57a1909cf1.xlsx
@@ -13769,13 +13769,13 @@
         <v>180</v>
       </c>
       <c r="G165" t="n">
-        <v>1334.82334286273</v>
+        <v>1469.26241356611</v>
       </c>
       <c r="H165" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I165" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J165" t="n">
         <v>30.5084745762712</v>
@@ -13854,13 +13854,13 @@
         <v>180</v>
       </c>
       <c r="G166" t="n">
-        <v>1334.82334286273</v>
+        <v>1469.26241356611</v>
       </c>
       <c r="H166" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I166" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J166" t="n">
         <v>30.5084745762712</v>
@@ -13939,13 +13939,13 @@
         <v>180</v>
       </c>
       <c r="G167" t="n">
-        <v>1334.82334286273</v>
+        <v>1469.26241356611</v>
       </c>
       <c r="H167" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I167" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J167" t="n">
         <v>30.5084745762712</v>
@@ -14024,13 +14024,13 @@
         <v>180</v>
       </c>
       <c r="G168" t="n">
-        <v>1334.82334286273</v>
+        <v>1469.26241356611</v>
       </c>
       <c r="H168" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I168" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J168" t="n">
         <v>30.5084745762712</v>
@@ -15450,13 +15450,13 @@
         <v>198</v>
       </c>
       <c r="G186" t="n">
-        <v>1314.51825811696</v>
+        <v>1448.95732882035</v>
       </c>
       <c r="H186" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I186" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J186" t="n">
         <v>33.8983050847458</v>
@@ -15535,13 +15535,13 @@
         <v>198</v>
       </c>
       <c r="G187" t="n">
-        <v>1314.51825811696</v>
+        <v>1448.95732882035</v>
       </c>
       <c r="H187" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I187" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J187" t="n">
         <v>33.8983050847458</v>
@@ -15620,13 +15620,13 @@
         <v>198</v>
       </c>
       <c r="G188" t="n">
-        <v>1314.51825811696</v>
+        <v>1448.95732882035</v>
       </c>
       <c r="H188" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I188" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J188" t="n">
         <v>33.8983050847458</v>
@@ -15705,13 +15705,13 @@
         <v>198</v>
       </c>
       <c r="G189" t="n">
-        <v>1314.51825811696</v>
+        <v>1448.95732882035</v>
       </c>
       <c r="H189" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I189" t="n">
-        <v>8918.91748</v>
+        <v>11255</v>
       </c>
       <c r="J189" t="n">
         <v>33.8983050847458</v>
@@ -17131,13 +17131,13 @@
         <v>220</v>
       </c>
       <c r="G207" t="n">
-        <v>1338.14788325691</v>
+        <v>1474.90486897242</v>
       </c>
       <c r="H207" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I207" t="n">
-        <v>9011.546340000001</v>
+        <v>11560</v>
       </c>
       <c r="J207" t="n">
         <v>31.0344827586207</v>
@@ -17216,13 +17216,13 @@
         <v>220</v>
       </c>
       <c r="G208" t="n">
-        <v>1338.14788325691</v>
+        <v>1474.90486897242</v>
       </c>
       <c r="H208" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I208" t="n">
-        <v>9011.546340000001</v>
+        <v>11560</v>
       </c>
       <c r="J208" t="n">
         <v>31.0344827586207</v>
@@ -17301,13 +17301,13 @@
         <v>220</v>
       </c>
       <c r="G209" t="n">
-        <v>1338.14788325691</v>
+        <v>1474.90486897242</v>
       </c>
       <c r="H209" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I209" t="n">
-        <v>9011.546340000001</v>
+        <v>11560</v>
       </c>
       <c r="J209" t="n">
         <v>31.0344827586207</v>
@@ -17386,13 +17386,13 @@
         <v>220</v>
       </c>
       <c r="G210" t="n">
-        <v>1338.14788325691</v>
+        <v>1474.90486897242</v>
       </c>
       <c r="H210" t="n">
-        <v>17000</v>
+        <v>17684.4824004005</v>
       </c>
       <c r="I210" t="n">
-        <v>9011.546340000001</v>
+        <v>11560</v>
       </c>
       <c r="J210" t="n">
         <v>31.0344827586207</v>
@@ -18812,13 +18812,13 @@
         <v>340</v>
       </c>
       <c r="G228" t="n">
-        <v>1981.4582280845</v>
+        <v>2118.21521380001</v>
       </c>
       <c r="H228" t="n">
         <v>27000</v>
       </c>
       <c r="I228" t="n">
-        <v>12301.03089</v>
+        <v>15800</v>
       </c>
       <c r="J228" t="n">
         <v>36.2068965517241</v>
@@ -18897,13 +18897,13 @@
         <v>340</v>
       </c>
       <c r="G229" t="n">
-        <v>1981.4582280845</v>
+        <v>2118.21521380001</v>
       </c>
       <c r="H229" t="n">
         <v>27000</v>
       </c>
       <c r="I229" t="n">
-        <v>12301.03089</v>
+        <v>15800</v>
       </c>
       <c r="J229" t="n">
         <v>36.2068965517241</v>
@@ -18982,13 +18982,13 @@
         <v>340</v>
       </c>
       <c r="G230" t="n">
-        <v>1981.4582280845</v>
+        <v>2118.21521380001</v>
       </c>
       <c r="H230" t="n">
         <v>27000</v>
       </c>
       <c r="I230" t="n">
-        <v>12301.03089</v>
+        <v>15800</v>
       </c>
       <c r="J230" t="n">
         <v>36.2068965517241</v>
@@ -19067,13 +19067,13 @@
         <v>340</v>
       </c>
       <c r="G231" t="n">
-        <v>1981.4582280845</v>
+        <v>2118.21521380001</v>
       </c>
       <c r="H231" t="n">
         <v>27000</v>
       </c>
       <c r="I231" t="n">
-        <v>12301.03089</v>
+        <v>15800</v>
       </c>
       <c r="J231" t="n">
         <v>36.2068965517241</v>
@@ -20493,13 +20493,13 @@
         <v>340</v>
       </c>
       <c r="G249" t="n">
-        <v>2132.41656320171</v>
+        <v>2266.85563390509</v>
       </c>
       <c r="H249" t="n">
         <v>27000</v>
       </c>
       <c r="I249" t="n">
-        <v>12088.65975</v>
+        <v>15650</v>
       </c>
       <c r="J249" t="n">
         <v>38.9830508474576</v>
@@ -20578,13 +20578,13 @@
         <v>340</v>
       </c>
       <c r="G250" t="n">
-        <v>2132.41656320171</v>
+        <v>2266.85563390509</v>
       </c>
       <c r="H250" t="n">
         <v>27000</v>
       </c>
       <c r="I250" t="n">
-        <v>12088.65975</v>
+        <v>15650</v>
       </c>
       <c r="J250" t="n">
         <v>38.9830508474576</v>
@@ -20663,13 +20663,13 @@
         <v>340</v>
       </c>
       <c r="G251" t="n">
-        <v>2132.41656320171</v>
+        <v>2266.85563390509</v>
       </c>
       <c r="H251" t="n">
         <v>27000</v>
       </c>
       <c r="I251" t="n">
-        <v>12088.65975</v>
+        <v>15650</v>
       </c>
       <c r="J251" t="n">
         <v>38.9830508474576</v>
@@ -20748,13 +20748,13 @@
         <v>340</v>
       </c>
       <c r="G252" t="n">
-        <v>2132.41656320171</v>
+        <v>2266.85563390509</v>
       </c>
       <c r="H252" t="n">
         <v>27000</v>
       </c>
       <c r="I252" t="n">
-        <v>12088.65975</v>
+        <v>15650</v>
       </c>
       <c r="J252" t="n">
         <v>38.9830508474576</v>
